--- a/Fase 1/Evidencias Grupales/Planilla_Evaluacion_Fase_1.xlsx
+++ b/Fase 1/Evidencias Grupales/Planilla_Evaluacion_Fase_1.xlsx
@@ -8,14 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20B3E65-E221-4D04-A04F-E885AEA51869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527C9859-8A89-4152-B85F-6D334F16E9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Generales" sheetId="1" r:id="rId1"/>
-    <sheet name="Evaluación" sheetId="2" r:id="rId2"/>
-    <sheet name="Resumen" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Nombre del estudiante</t>
   </si>
@@ -113,18 +111,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -209,24 +202,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -546,262 +536,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>20</v>
       </c>
-      <c r="C5" s="3">
-        <v>15</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="2">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3">
-        <v>15</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="B6" s="2">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2">
         <v>10</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>20</v>
       </c>
-      <c r="C7" s="3">
-        <v>15</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="2">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="3">
-        <v>15</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="B8" s="2">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2">
         <v>10</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="3">
-        <v>15</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="B9" s="2">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2">
         <v>10</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="3">
-        <v>15</v>
-      </c>
-      <c r="C10" s="3">
-        <v>15</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="B10" s="2">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:4" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <f>B5+B6+B7+B8+B9+B10</f>
         <v>100</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <f>C5+C6+C7+C8+C9+C10</f>
         <v>75</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
